--- a/Extension/2017-2016-expenses.xlsx
+++ b/Extension/2017-2016-expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\amazon-expense-extension\Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE1ECFA8-5CF3-4BD6-B7F0-5F07D777B3B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1FD85C-73C4-477E-89E4-7EF0C3DBE084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FA5E6E8-3390-4C40-B4C8-CEF9373B2C5F}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,7 +383,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +465,7 @@
         <v>12.84</v>
       </c>
       <c r="B10">
-        <v>155.91</v>
+        <v>159.91</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,7 +556,7 @@
       </c>
       <c r="B23">
         <f>SUM(B2:B22)</f>
-        <v>560.12</v>
+        <v>564.12</v>
       </c>
     </row>
   </sheetData>

--- a/Extension/2017-2016-expenses.xlsx
+++ b/Extension/2017-2016-expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\amazon-expense-extension\Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1FD85C-73C4-477E-89E4-7EF0C3DBE084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C356C-C9A7-45B4-945A-BE1C400E5603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FA5E6E8-3390-4C40-B4C8-CEF9373B2C5F}"/>
   </bookViews>
@@ -64,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -380,176 +381,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1927E0-187E-4F8A-938A-E733A521C9EB}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2017</v>
       </c>
       <c r="B1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10.45</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13.9</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>41.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18.46</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>44.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14.61</v>
       </c>
       <c r="B5">
         <v>13.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.28</v>
       </c>
       <c r="B6">
         <v>16.48</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18.38</v>
       </c>
       <c r="B8">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>54.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>19.95</v>
       </c>
       <c r="B9">
         <v>28.89</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12.84</v>
       </c>
       <c r="B10">
         <v>159.91</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.1399999999999997</v>
       </c>
       <c r="B11">
         <v>4.93</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14.99</v>
       </c>
       <c r="B12">
         <v>59.29</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14.37</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>279.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23.98</v>
       </c>
       <c r="B14">
         <v>23.99</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7.99</v>
       </c>
       <c r="B15">
         <v>144.74</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6.99</v>
       </c>
       <c r="B16">
         <v>93.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>34.5</v>
       </c>
       <c r="B17">
         <v>5.98</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>37.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>19.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>SUM(A2:A22)</f>
         <v>310.22000000000003</v>
@@ -557,6 +627,65 @@
       <c r="B23">
         <f>SUM(B2:B22)</f>
         <v>564.12</v>
+      </c>
+      <c r="C23">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>249.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>39.840000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>41.93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>66.709999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>SUM(C2:C33)</f>
+        <v>1110.46</v>
       </c>
     </row>
   </sheetData>

--- a/Extension/2017-2016-expenses.xlsx
+++ b/Extension/2017-2016-expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\amazon-expense-extension\Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C356C-C9A7-45B4-945A-BE1C400E5603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A10E38-82D5-4C33-BF7A-17E2C27AC88F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FA5E6E8-3390-4C40-B4C8-CEF9373B2C5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FA5E6E8-3390-4C40-B4C8-CEF9373B2C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1927E0-187E-4F8A-938A-E733A521C9EB}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,9 +410,6 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>7.88</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -421,9 +418,6 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>41.65</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -432,9 +426,6 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>44.68</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -443,9 +434,6 @@
       <c r="B5">
         <v>13.95</v>
       </c>
-      <c r="C5">
-        <v>14.99</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -454,9 +442,6 @@
       <c r="B6">
         <v>16.48</v>
       </c>
-      <c r="C6">
-        <v>13.21</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -464,9 +449,6 @@
       </c>
       <c r="B7">
         <v>6.99</v>
-      </c>
-      <c r="C7">
-        <v>8.99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -476,9 +458,6 @@
       <c r="B8">
         <v>5.07</v>
       </c>
-      <c r="C8">
-        <v>54.99</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -488,7 +467,7 @@
         <v>28.89</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,7 +478,7 @@
         <v>159.91</v>
       </c>
       <c r="C10">
-        <v>12.39</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,7 +489,7 @@
         <v>4.93</v>
       </c>
       <c r="C11">
-        <v>9.99</v>
+        <v>17.989999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,7 +500,7 @@
         <v>59.29</v>
       </c>
       <c r="C12">
-        <v>19.75</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>279.98</v>
+        <v>41.65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -543,7 +522,7 @@
         <v>23.99</v>
       </c>
       <c r="C14">
-        <v>6.39</v>
+        <v>44.68</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,7 +533,7 @@
         <v>144.74</v>
       </c>
       <c r="C15">
-        <v>6.99</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,7 +544,7 @@
         <v>93.9</v>
       </c>
       <c r="C16">
-        <v>14.54</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -576,7 +555,7 @@
         <v>5.98</v>
       </c>
       <c r="C17">
-        <v>37.04</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,7 +563,7 @@
         <v>7.9</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>54.99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -600,7 +579,7 @@
         <v>9.99</v>
       </c>
       <c r="C20">
-        <v>19.63</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,7 +587,7 @@
         <v>72.5</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -629,63 +608,113 @@
         <v>564.12</v>
       </c>
       <c r="C23">
-        <v>15.99</v>
+        <v>279.98</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24">
-        <v>11.99</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25">
-        <v>27.69</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26">
-        <v>249.39</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27">
-        <v>39.840000000000003</v>
+        <v>37.04</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28">
-        <v>41.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29">
-        <v>9.9700000000000006</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30">
-        <v>66.709999999999994</v>
+        <v>19.63</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31">
-        <v>16.989999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32">
-        <v>14.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
-        <v>13.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
-        <f>SUM(C2:C33)</f>
-        <v>1110.46</v>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>249.39</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>39.840000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>41.93</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>66.709999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f>SUM(C2:C43)</f>
+        <v>1154.9900000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Extension/2017-2016-expenses.xlsx
+++ b/Extension/2017-2016-expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\amazon-expense-extension\Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A10E38-82D5-4C33-BF7A-17E2C27AC88F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD885AFD-697F-4AF9-BCB7-1BF5ED56D96D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FA5E6E8-3390-4C40-B4C8-CEF9373B2C5F}"/>
   </bookViews>
@@ -31,6 +31,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Resi 2016</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1927E0-187E-4F8A-938A-E733A521C9EB}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +400,7 @@
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2017</v>
       </c>
@@ -402,24 +410,33 @@
       <c r="C1" s="1">
         <v>44292</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10.45</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13.9</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18.46</v>
       </c>
@@ -427,7 +444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14.61</v>
       </c>
@@ -435,7 +452,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.28</v>
       </c>
@@ -443,7 +460,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -451,7 +468,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18.38</v>
       </c>
@@ -459,146 +476,104 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>19.95</v>
       </c>
       <c r="B9">
         <v>28.89</v>
       </c>
-      <c r="C9">
-        <v>16.55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12.84</v>
       </c>
       <c r="B10">
         <v>159.91</v>
       </c>
-      <c r="C10">
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.1399999999999997</v>
       </c>
       <c r="B11">
         <v>4.93</v>
       </c>
-      <c r="C11">
-        <v>17.989999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14.99</v>
       </c>
       <c r="B12">
         <v>59.29</v>
       </c>
-      <c r="C12">
-        <v>7.88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14.37</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>41.65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23.98</v>
       </c>
       <c r="B14">
         <v>23.99</v>
       </c>
-      <c r="C14">
-        <v>44.68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7.99</v>
       </c>
       <c r="B15">
         <v>144.74</v>
       </c>
-      <c r="C15">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6.99</v>
       </c>
       <c r="B16">
         <v>93.9</v>
       </c>
-      <c r="C16">
-        <v>13.21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>34.5</v>
       </c>
       <c r="B17">
         <v>5.98</v>
       </c>
-      <c r="C17">
-        <v>8.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.9</v>
       </c>
-      <c r="C18">
-        <v>54.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.99</v>
       </c>
-      <c r="C20">
-        <v>12.39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>72.5</v>
       </c>
-      <c r="C21">
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>19.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>SUM(A2:A22)</f>
         <v>310.22000000000003</v>
@@ -607,114 +582,225 @@
         <f>SUM(B2:B22)</f>
         <v>564.12</v>
       </c>
-      <c r="C23">
-        <v>279.98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>6.39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>14.54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>37.04</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>7.91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>19.63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>15.99</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>11.99</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>27.69</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>249.39</v>
+      <c r="G23">
+        <f>SUM(G2:G22)</f>
+        <v>94.99</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37">
-        <v>39.840000000000003</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38">
-        <v>41.93</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39">
-        <v>9.9700000000000006</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40">
-        <v>66.709999999999994</v>
+        <v>167.99</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41">
-        <v>16.989999999999998</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42">
-        <v>14.97</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43">
-        <v>13.99</v>
+        <v>19.010000000000002</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44">
-        <f>SUM(C2:C43)</f>
-        <v>1154.9900000000002</v>
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>41.65</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>44.68</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>54.99</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>279.98</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>37.04</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>19.63</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>249.39</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>39.840000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>41.93</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>66.709999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f>SUM(C2:C78)</f>
+        <v>1383.7</v>
       </c>
     </row>
   </sheetData>
